--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -501,68 +501,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -577,14 +523,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -593,47 +593,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -698,6 +657,47 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1525,9 +1525,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="1" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <tableColumns count="18">
-    <tableColumn id="1" name="ФИО" dataDxfId="13" dataCellStyle="Обычный"/>
+    <tableColumn id="1" name="ФИО" dataDxfId="11" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataCellStyle="Обычный"/>
     <tableColumn id="3" name="Лабораторные" dataCellStyle="Обычный"/>
     <tableColumn id="4" name="Самостоятельная работа" dataCellStyle="Обычный"/>
@@ -1536,27 +1536,27 @@
     <tableColumn id="7" name="Лекции (б)" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица531[[#This Row],[Лекции]],10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="12" dataCellStyle="Обычный">
+    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="10" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Лабораторные]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="11" dataCellStyle="Обычный">
+    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="9" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Самостоятельная работа]]*15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Другие виды уч.  де-сти (б)" dataDxfId="10" dataCellStyle="Обычный">
+    <tableColumn id="10" name="Другие виды уч.  де-сти (б)" dataDxfId="8" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="9" dataCellStyle="Обычный">
+    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="7" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Промежуточная аттестация]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Итого" dataDxfId="8" dataCellStyle="Обычный">
+    <tableColumn id="12" name="Итого" dataDxfId="6" dataCellStyle="Обычный">
       <calculatedColumnFormula>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="1" dataDxfId="7"/>
-    <tableColumn id="22" name="2" dataDxfId="6"/>
-    <tableColumn id="23" name="3" dataDxfId="5"/>
-    <tableColumn id="24" name="4" dataDxfId="4"/>
-    <tableColumn id="25" name="5" dataDxfId="3"/>
-    <tableColumn id="26" name="6" dataDxfId="2"/>
+    <tableColumn id="6" name="1" dataDxfId="5"/>
+    <tableColumn id="22" name="2" dataDxfId="4"/>
+    <tableColumn id="23" name="3" dataDxfId="3"/>
+    <tableColumn id="24" name="4" dataDxfId="2"/>
+    <tableColumn id="25" name="5" dataDxfId="1"/>
+    <tableColumn id="26" name="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,101 +1870,101 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2003,12 +2003,12 @@
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>1</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -2047,13 +2047,13 @@
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>1</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="U6" s="31"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2092,12 +2092,12 @@
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -2136,13 +2136,13 @@
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>1</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="U8" s="31"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2154,7 +2154,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
       <c r="G9" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
@@ -2173,18 +2175,18 @@
       </c>
       <c r="K9" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -2227,9 +2229,9 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="U10" s="31"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -2241,7 +2243,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
@@ -2260,18 +2264,18 @@
       </c>
       <c r="K11" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2316,9 +2320,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="U12" s="31"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2361,8 +2365,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2405,9 +2409,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="U14" s="31"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2450,8 +2454,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -2494,9 +2498,9 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="U16" s="31"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2539,8 +2543,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -2581,9 +2585,9 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="U18" s="31"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -2626,8 +2630,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -2639,7 +2643,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
       <c r="G20" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
@@ -2658,19 +2664,19 @@
       </c>
       <c r="K20" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="U20" s="31"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="U20" s="13"/>
     </row>
     <row r="21" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -2713,8 +2719,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -2757,9 +2763,9 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="U22" s="31"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -2802,8 +2808,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -2818,7 +2824,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="U24" s="31"/>
+      <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2829,18 +2835,18 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="2"/>
-      <c r="U26" s="31"/>
+      <c r="U26" s="13"/>
     </row>
     <row r="27" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -2849,12 +2855,12 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2863,13 +2869,13 @@
       <c r="B28" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="U28" s="31"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -2878,12 +2884,12 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2892,13 +2898,13 @@
       <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="U30" s="31"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="U30" s="13"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -2907,35 +2913,35 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U32" s="31"/>
+      <c r="U32" s="13"/>
     </row>
     <row r="34" spans="21:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U34" s="31"/>
+      <c r="U34" s="13"/>
     </row>
     <row r="36" spans="21:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U36" s="32"/>
+      <c r="U36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2972,903 +2978,1059 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17">
-        <v>0</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="34">
+        <v>0</v>
+      </c>
+      <c r="D1" s="34">
+        <v>0</v>
+      </c>
+      <c r="E1" s="34">
+        <v>0</v>
+      </c>
+      <c r="F1" s="34">
+        <v>0</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1" s="17">
-        <v>0</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="34">
+        <v>0</v>
+      </c>
+      <c r="I1" s="34">
+        <v>0</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="17">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="20"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="20"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="20"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="C15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="H17" s="34">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="20"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="20"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="C21" s="34">
+        <v>0</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="20"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0</v>
+      </c>
+      <c r="J23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="20"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="C25" s="34">
+        <v>0</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
+      <c r="G25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0</v>
+      </c>
+      <c r="J25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="20"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="20"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17" t="s">
+      <c r="H29" s="34">
+        <v>0</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="20"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="17">
-        <v>0</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17" t="s">
+      <c r="H31" s="34">
+        <v>0</v>
+      </c>
+      <c r="I31" s="34">
+        <v>0</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="20"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="C33" s="34">
+        <v>0</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0</v>
+      </c>
+      <c r="E33" s="34">
+        <v>0</v>
+      </c>
+      <c r="F33" s="34">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17" t="s">
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="34">
+        <v>0</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="20"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="27">
-        <v>0</v>
-      </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27" t="s">
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="27">
-        <v>0</v>
-      </c>
-      <c r="I35" s="27">
-        <v>0</v>
-      </c>
-      <c r="J35" s="27" t="s">
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="30"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24" t="s">
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="24">
-        <v>0</v>
-      </c>
-      <c r="J37" s="24" t="s">
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
@@ -3893,162 +4055,6 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4057,7 +4063,432 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId4" name="Control 36">
+        <control shapeId="1043" r:id="rId4" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId4" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId6" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId6" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId7" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId7" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId8" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId8" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId9" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId9" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId10" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId10" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId11" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId11" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId12" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId12" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId13" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId13" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId14" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId14" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId15" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId15" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId16" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId16" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId17" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId17" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId18" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId18" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId19" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId19" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId20" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId20" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId21" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId21" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId22" name="Control 36">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4077,432 +4508,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId4" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId6" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId6" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId7" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId7" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId8" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId8" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId9" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId9" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId10" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId10" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId11" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId11" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId12" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId12" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId13" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId13" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId14" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId14" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId15" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId15" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId16" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId16" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId17" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId17" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId18" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId18" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId19" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId19" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId20" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId20" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId21" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId21" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId22" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId22" name="Control 19"/>
+        <control shapeId="1060" r:id="rId22" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -529,26 +529,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,28 +580,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,44 +1870,44 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -2287,7 +2287,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J12" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L12" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2511,7 +2511,9 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
@@ -2529,7 +2531,7 @@
       </c>
       <c r="J17" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -2537,7 +2539,7 @@
       </c>
       <c r="L17" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2556,7 +2558,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
@@ -2575,11 +2579,11 @@
       </c>
       <c r="K18" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2835,16 +2839,16 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="2"/>
       <c r="U26" s="13"/>
     </row>
@@ -2855,12 +2859,12 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2869,12 +2873,12 @@
       <c r="B28" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2884,12 +2888,12 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2898,12 +2902,12 @@
       <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="U30" s="13"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2913,12 +2917,12 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U32" s="13"/>
@@ -2931,17 +2935,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2978,34 +2982,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34">
-        <v>0</v>
-      </c>
-      <c r="D1" s="34">
-        <v>0</v>
-      </c>
-      <c r="E1" s="34">
-        <v>0</v>
-      </c>
-      <c r="F1" s="34">
-        <v>0</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="28">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28">
+        <v>0</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="34">
-        <v>0</v>
-      </c>
-      <c r="I1" s="34">
-        <v>0</v>
-      </c>
-      <c r="J1" s="34" t="s">
+      <c r="H1" s="28">
+        <v>0</v>
+      </c>
+      <c r="I1" s="28">
+        <v>0</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="30" t="s">
@@ -3013,47 +3017,47 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="34">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
-        <v>0</v>
-      </c>
-      <c r="J3" s="34" t="s">
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="30" t="s">
@@ -3061,47 +3065,47 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="30" t="s">
@@ -3109,47 +3113,47 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34" t="s">
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="30" t="s">
@@ -3157,47 +3161,47 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="30" t="s">
@@ -3205,47 +3209,47 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="34">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34" t="s">
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34" t="s">
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="30" t="s">
@@ -3253,47 +3257,47 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="34">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34" t="s">
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="30" t="s">
@@ -3301,47 +3305,47 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="34">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K15" s="30" t="s">
@@ -3349,47 +3353,47 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="34">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34" t="s">
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="34">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
-        <v>0</v>
-      </c>
-      <c r="J17" s="34" t="s">
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="30" t="s">
@@ -3397,47 +3401,47 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="34">
-        <v>0</v>
-      </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="E19" s="34">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34" t="s">
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34" t="s">
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K19" s="30" t="s">
@@ -3445,47 +3449,47 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="34">
-        <v>0</v>
-      </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34" t="s">
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="34">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34" t="s">
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="30" t="s">
@@ -3493,47 +3497,47 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="34">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34" t="s">
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34">
-        <v>0</v>
-      </c>
-      <c r="J23" s="34" t="s">
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="30" t="s">
@@ -3541,47 +3545,47 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="34">
-        <v>0</v>
-      </c>
-      <c r="D25" s="34">
-        <v>0</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34" t="s">
+      <c r="C25" s="28">
+        <v>0</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34">
-        <v>0</v>
-      </c>
-      <c r="I25" s="34">
-        <v>0</v>
-      </c>
-      <c r="J25" s="34" t="s">
+      <c r="H25" s="28">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K25" s="30" t="s">
@@ -3589,47 +3593,47 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="34">
-        <v>0</v>
-      </c>
-      <c r="D27" s="34">
-        <v>0</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34" t="s">
+      <c r="C27" s="28">
+        <v>0</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="34">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34">
-        <v>0</v>
-      </c>
-      <c r="J27" s="34" t="s">
+      <c r="H27" s="28">
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="30" t="s">
@@ -3637,47 +3641,47 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="34">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34">
-        <v>0</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34" t="s">
+      <c r="C29" s="28">
+        <v>0</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="34">
-        <v>0</v>
-      </c>
-      <c r="I29" s="34">
-        <v>0</v>
-      </c>
-      <c r="J29" s="34" t="s">
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0</v>
+      </c>
+      <c r="J29" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="30" t="s">
@@ -3685,47 +3689,47 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="34">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34">
-        <v>0</v>
-      </c>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="s">
+      <c r="C31" s="28">
+        <v>0</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="34">
-        <v>0</v>
-      </c>
-      <c r="I31" s="34">
-        <v>0</v>
-      </c>
-      <c r="J31" s="34" t="s">
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="30" t="s">
@@ -3733,47 +3737,47 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="34">
-        <v>0</v>
-      </c>
-      <c r="D33" s="34">
-        <v>0</v>
-      </c>
-      <c r="E33" s="34">
-        <v>0</v>
-      </c>
-      <c r="F33" s="34">
-        <v>0</v>
-      </c>
-      <c r="G33" s="34" t="s">
+      <c r="C33" s="28">
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="34">
-        <v>0</v>
-      </c>
-      <c r="I33" s="34">
-        <v>0</v>
-      </c>
-      <c r="J33" s="34" t="s">
+      <c r="H33" s="28">
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="30" t="s">
@@ -3781,65 +3785,65 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="26">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0</v>
-      </c>
-      <c r="F35" s="26">
-        <v>0</v>
-      </c>
-      <c r="G35" s="26" t="s">
+      <c r="C35" s="32">
+        <v>0</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="26">
-        <v>0</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26" t="s">
+      <c r="H35" s="32">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0</v>
+      </c>
+      <c r="J35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="29"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
@@ -3875,29 +3879,139 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -3922,139 +4036,29 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4063,7 +4067,432 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId4" name="Control 19">
+        <control shapeId="1060" r:id="rId4" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId4" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId6" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId6" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId7" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId7" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId8" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId8" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId9" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId9" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId10" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId10" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId11" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId11" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId12" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId12" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId13" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId13" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId14" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId14" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId15" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId15" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId16" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId16" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId17" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId17" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId18" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId18" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId19" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId19" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId20" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId20" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId21" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId21" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId22" name="Control 19">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4083,432 +4512,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId4" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId6" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId6" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId7" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId7" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId8" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId8" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId9" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId9" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId10" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId10" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId11" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId11" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId12" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId12" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId13" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId13" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId14" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId14" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId15" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId15" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId16" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId16" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId17" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId17" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId18" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId18" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId19" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId19" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId20" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId20" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId21" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId21" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId22" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId22" name="Control 36"/>
+        <control shapeId="1043" r:id="rId22" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -94,9 +94,6 @@
     <t>Промежуточная аттестация (б)</t>
   </si>
   <si>
-    <t>активность на занятиях, самостоятельные изыскания</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Юрченко Елена Михайловна</t>
+  </si>
+  <si>
+    <t>активность на занятиях, самостоятельные изыскания, публикации</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -401,6 +401,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -501,11 +504,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <tableColumns count="18">
-    <tableColumn id="1" name="ФИО" dataDxfId="11" dataCellStyle="Обычный"/>
+    <tableColumn id="1" name="ФИО" dataDxfId="12" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataCellStyle="Обычный"/>
-    <tableColumn id="3" name="Лабораторные" dataCellStyle="Обычный"/>
+    <tableColumn id="3" name="Лабораторные" dataDxfId="11" dataCellStyle="Обычный"/>
     <tableColumn id="4" name="Самостоятельная работа" dataCellStyle="Обычный"/>
     <tableColumn id="5" name="Другие виды уч.  де-сти" dataCellStyle="Обычный"/>
     <tableColumn id="21" name="Промежуточная аттестация" dataCellStyle="Обычный"/>
@@ -827,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
-        <v>44821</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -923,31 +926,31 @@
         <v>5</v>
       </c>
       <c r="M4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -957,7 +960,7 @@
       </c>
       <c r="G5" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -969,7 +972,7 @@
       </c>
       <c r="J5" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -977,7 +980,7 @@
       </c>
       <c r="L5" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -988,32 +991,36 @@
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1021,7 +1028,7 @@
       </c>
       <c r="L6" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1033,10 +1040,10 @@
     </row>
     <row r="7" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1046,7 +1053,7 @@
       </c>
       <c r="G7" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1058,7 +1065,7 @@
       </c>
       <c r="J7" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1066,7 +1073,7 @@
       </c>
       <c r="L7" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1077,10 +1084,10 @@
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1090,7 +1097,7 @@
       </c>
       <c r="G8" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1102,7 +1109,7 @@
       </c>
       <c r="J8" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1110,7 +1117,7 @@
       </c>
       <c r="L8" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1122,10 +1129,10 @@
     </row>
     <row r="9" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1135,7 +1142,7 @@
       </c>
       <c r="G9" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1147,7 +1154,7 @@
       </c>
       <c r="J9" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1155,7 +1162,7 @@
       </c>
       <c r="L9" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1166,12 +1173,14 @@
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -1179,11 +1188,11 @@
       </c>
       <c r="G10" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -1191,7 +1200,7 @@
       </c>
       <c r="J10" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1199,7 +1208,7 @@
       </c>
       <c r="L10" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1211,10 +1220,10 @@
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="G11" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="J11" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1244,7 +1253,7 @@
       </c>
       <c r="L11" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1255,22 +1264,22 @@
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1282,7 +1291,7 @@
       </c>
       <c r="J12" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1290,7 +1299,7 @@
       </c>
       <c r="L12" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1302,12 +1311,14 @@
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -1315,11 +1326,11 @@
       </c>
       <c r="G13" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -1327,7 +1338,7 @@
       </c>
       <c r="J13" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1335,7 +1346,7 @@
       </c>
       <c r="L13" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1346,32 +1357,37 @@
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1379,7 +1395,7 @@
       </c>
       <c r="L14" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1391,10 +1407,10 @@
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1404,7 +1420,7 @@
       </c>
       <c r="G15" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1424,7 +1440,7 @@
       </c>
       <c r="L15" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1435,20 +1451,20 @@
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1460,15 +1476,15 @@
       </c>
       <c r="J16" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L16" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1480,22 +1496,22 @@
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1507,7 +1523,7 @@
       </c>
       <c r="J17" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1515,7 +1531,7 @@
       </c>
       <c r="L17" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1526,10 +1542,10 @@
     </row>
     <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1539,7 +1555,7 @@
       </c>
       <c r="G18" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1551,7 +1567,7 @@
       </c>
       <c r="J18" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1559,7 +1575,7 @@
       </c>
       <c r="L18" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1571,20 +1587,20 @@
     </row>
     <row r="19" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1596,15 +1612,15 @@
       </c>
       <c r="J19" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L19" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1628,7 +1644,7 @@
       </c>
       <c r="G20" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1640,7 +1656,7 @@
       </c>
       <c r="J20" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1648,7 +1664,7 @@
       </c>
       <c r="L20" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1660,10 +1676,10 @@
     </row>
     <row r="21" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1673,7 +1689,7 @@
       </c>
       <c r="G21" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1685,7 +1701,7 @@
       </c>
       <c r="J21" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1693,7 +1709,7 @@
       </c>
       <c r="L21" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1704,10 +1720,10 @@
     </row>
     <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1717,7 +1733,7 @@
       </c>
       <c r="G22" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1729,7 +1745,7 @@
       </c>
       <c r="J22" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1737,7 +1753,7 @@
       </c>
       <c r="L22" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1749,10 +1765,10 @@
     </row>
     <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1762,7 +1778,7 @@
       </c>
       <c r="G23" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1774,7 +1790,7 @@
       </c>
       <c r="J23" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1782,7 +1798,7 @@
       </c>
       <c r="L23" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1879,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>

--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -13,8 +13,794 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Иван Слеповичев</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+офрмление формул, ссылки на руисунки</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление, содержание, отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Иван Слеповичев
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Ссылки на рисунки, оформление формул</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление формул</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление формул, отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет лабораторных</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет лабораторных
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление и ссылки на рисунки, оформление формул, отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Отсутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Ссылки на рисунки, оформление формул, отсутствие практической части
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление формул, заголовков, отстутствие практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: заголовки, формулы, ссылки на рисунки. Нет практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: ссылки на рисунки, формулы. Нет практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: рисунки, формулы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: формулы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: формулы, отступы, форматирование, рисунки, заголовки. Нет исходного кода и пояснений к практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Структура. Оформление: формулы. Нет практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оформление: формулы. Нет практической части</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Иван Слеповичев:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка Артемовой Н.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>ФИО</t>
   </si>
@@ -170,13 +956,40 @@
   </si>
   <si>
     <t>активность на занятиях, самостоятельные изыскания, публикации</t>
+  </si>
+  <si>
+    <t>86-100 баллов</t>
+  </si>
+  <si>
+    <t>76-85 баллов</t>
+  </si>
+  <si>
+    <t>60-75 баллов</t>
+  </si>
+  <si>
+    <t>0-59 баллов</t>
+  </si>
+  <si>
+    <t>Данные для учета успеваемости студентов в БАРС</t>
+  </si>
+  <si>
+    <t>Количество 5:</t>
+  </si>
+  <si>
+    <t>Количество 4:</t>
+  </si>
+  <si>
+    <t>Количество 3:</t>
+  </si>
+  <si>
+    <t>Количество 2:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +1036,41 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -244,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -308,13 +1156,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -356,20 +1294,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,13 +1309,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -421,6 +1386,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -432,6 +1400,13 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -451,13 +1426,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -504,16 +1472,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
   <tableColumns count="18">
-    <tableColumn id="1" name="ФИО" dataDxfId="12" dataCellStyle="Обычный"/>
+    <tableColumn id="1" name="ФИО" dataDxfId="13" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataCellStyle="Обычный"/>
-    <tableColumn id="3" name="Лабораторные" dataDxfId="11" dataCellStyle="Обычный"/>
+    <tableColumn id="3" name="Лабораторные" dataDxfId="12" dataCellStyle="Обычный"/>
     <tableColumn id="4" name="Самостоятельная работа" dataCellStyle="Обычный"/>
     <tableColumn id="5" name="Другие виды уч.  де-сти" dataCellStyle="Обычный"/>
     <tableColumn id="21" name="Промежуточная аттестация" dataCellStyle="Обычный"/>
-    <tableColumn id="7" name="Лекции (б)" dataCellStyle="Обычный">
-      <calculatedColumnFormula>MIN(Таблица531[[#This Row],[Лекции]],10)</calculatedColumnFormula>
+    <tableColumn id="7" name="Лекции (б)" dataDxfId="11" dataCellStyle="Обычный">
+      <calculatedColumnFormula>MIN(Таблица531[[#This Row],[Лекции]],12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="10" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Лабораторные]]*6</calculatedColumnFormula>
@@ -827,66 +1795,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C27" sqref="C27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="12" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="24" customWidth="1"/>
+    <col min="4" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="12" width="16.88671875" customWidth="1"/>
     <col min="13" max="18" width="8.88671875" customWidth="1"/>
     <col min="21" max="21" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
-        <v>44919</v>
+        <v>44941</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -895,7 +1865,7 @@
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -952,23 +1922,27 @@
       <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="26">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H5" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -976,11 +1950,11 @@
       </c>
       <c r="K5" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -996,19 +1970,19 @@
       <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="26">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1016,7 +1990,7 @@
       </c>
       <c r="I6" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1024,11 +1998,11 @@
       </c>
       <c r="K6" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1045,23 +2019,24 @@
       <c r="B7" s="2">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1069,11 +2044,11 @@
       </c>
       <c r="K7" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1089,23 +2064,24 @@
       <c r="B8" s="2">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1113,11 +2089,11 @@
       </c>
       <c r="K8" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1134,23 +2110,24 @@
       <c r="B9" s="2">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H9" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1158,11 +2135,11 @@
       </c>
       <c r="K9" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1178,17 +2155,19 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H10" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1196,7 +2175,7 @@
       </c>
       <c r="I10" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1204,11 +2183,11 @@
       </c>
       <c r="K10" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1225,15 +2204,15 @@
       <c r="B11" s="2">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H11" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1253,7 +2232,7 @@
       </c>
       <c r="L11" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1269,25 +2248,26 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
         <v>9</v>
       </c>
       <c r="H12" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1295,11 +2275,11 @@
       </c>
       <c r="K12" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1316,25 +2296,27 @@
       <c r="B13" s="2">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="26">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H13" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1342,11 +2324,11 @@
       </c>
       <c r="K13" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1362,24 +2344,23 @@
       <c r="B14" s="2">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
-        <f>3</f>
-        <v>3</v>
+      <c r="C14" s="26">
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -1391,11 +2372,11 @@
       </c>
       <c r="K14" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1412,23 +2393,27 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
         <v>8</v>
       </c>
       <c r="H15" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I15" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1436,11 +2421,11 @@
       </c>
       <c r="K15" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1456,23 +2441,24 @@
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1480,11 +2466,11 @@
       </c>
       <c r="K16" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1501,25 +2487,29 @@
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="26">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1527,11 +2517,11 @@
       </c>
       <c r="K17" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1547,23 +2537,27 @@
       <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="26">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H18" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I18" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1571,11 +2565,11 @@
       </c>
       <c r="K18" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1592,23 +2586,24 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H19" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I19" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1616,11 +2611,11 @@
       </c>
       <c r="K19" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1636,23 +2631,24 @@
       <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I20" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1660,11 +2656,11 @@
       </c>
       <c r="K20" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L20" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1681,23 +2677,24 @@
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H21" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1705,11 +2702,11 @@
       </c>
       <c r="K21" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1725,23 +2722,24 @@
       <c r="B22" s="2">
         <v>11</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>11</v>
       </c>
       <c r="H22" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -1749,11 +2747,11 @@
       </c>
       <c r="K22" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L22" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1770,35 +2768,38 @@
       <c r="B23" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2">
-        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>10</v>
+        <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
+        <v>12</v>
       </c>
       <c r="H23" s="2">
-        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1810,7 +2811,7 @@
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1831,17 +2832,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="2"/>
+      <c r="K26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="34">
+        <f>COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
+        <v>5</v>
+      </c>
       <c r="U26" s="11"/>
     </row>
     <row r="27" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,12 +2859,19 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="K27" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="34">
+        <f>COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -1865,12 +2880,19 @@
       <c r="B28" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="K28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="34">
+        <f>COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
+        <v>7</v>
+      </c>
       <c r="U28" s="11"/>
     </row>
     <row r="29" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1880,12 +2902,19 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="K29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="34">
+        <f>COUNTIFS(Таблица531[Итого],"&lt;60")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -1894,12 +2923,12 @@
       <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
       <c r="U30" s="11"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1909,40 +2938,74 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U32" s="11"/>
     </row>
-    <row r="34" spans="21:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="28">
+        <v>5</v>
+      </c>
       <c r="U34" s="11"/>
     </row>
-    <row r="36" spans="21:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="30">
+        <v>3</v>
+      </c>
       <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="32">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Нет лабораторных</t>
+Оформление: ссылки на рисунки. Содержание: нет формул и описания алгоритмов. Отсутствие практической части</t>
         </r>
       </text>
     </comment>
@@ -800,7 +800,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>ФИО</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Количество 2:</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1246,13 +1249,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1294,27 +1306,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1342,13 +1333,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1402,13 +1427,6 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1426,6 +1444,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1472,38 +1497,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:R23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <tableColumns count="18">
-    <tableColumn id="1" name="ФИО" dataDxfId="13" dataCellStyle="Обычный"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:S23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <tableColumns count="19">
+    <tableColumn id="1" name="ФИО" dataDxfId="14" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataCellStyle="Обычный"/>
-    <tableColumn id="3" name="Лабораторные" dataDxfId="12" dataCellStyle="Обычный"/>
+    <tableColumn id="3" name="Лабораторные" dataDxfId="13" dataCellStyle="Обычный"/>
     <tableColumn id="4" name="Самостоятельная работа" dataCellStyle="Обычный"/>
     <tableColumn id="5" name="Другие виды уч.  де-сти" dataCellStyle="Обычный"/>
     <tableColumn id="21" name="Промежуточная аттестация" dataCellStyle="Обычный"/>
-    <tableColumn id="7" name="Лекции (б)" dataDxfId="11" dataCellStyle="Обычный">
+    <tableColumn id="7" name="Лекции (б)" dataDxfId="12" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица531[[#This Row],[Лекции]],12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="10" dataCellStyle="Обычный">
+    <tableColumn id="8" name=" Лабораторные (б)" dataDxfId="11" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Лабораторные]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="9" dataCellStyle="Обычный">
+    <tableColumn id="9" name="Самостоятельная работа (б)" dataDxfId="10" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Самостоятельная работа]]*15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Другие виды уч.  де-сти (б)" dataDxfId="8" dataCellStyle="Обычный">
+    <tableColumn id="10" name="Другие виды уч.  де-сти (б)" dataDxfId="9" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="7" dataCellStyle="Обычный">
+    <tableColumn id="11" name="Промежуточная аттестация (б)" dataDxfId="8" dataCellStyle="Обычный">
       <calculatedColumnFormula>Таблица531[[#This Row],[Промежуточная аттестация]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Итого" dataDxfId="6" dataCellStyle="Обычный">
+    <tableColumn id="12" name="Итого" dataDxfId="7" dataCellStyle="Обычный">
       <calculatedColumnFormula>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="1" dataDxfId="5"/>
-    <tableColumn id="22" name="2" dataDxfId="4"/>
-    <tableColumn id="23" name="3" dataDxfId="3"/>
-    <tableColumn id="24" name="4" dataDxfId="2"/>
-    <tableColumn id="25" name="5" dataDxfId="1"/>
-    <tableColumn id="26" name="6" dataDxfId="0"/>
+    <tableColumn id="6" name="1" dataDxfId="6"/>
+    <tableColumn id="22" name="2" dataDxfId="5"/>
+    <tableColumn id="23" name="3" dataDxfId="4"/>
+    <tableColumn id="24" name="4" dataDxfId="3"/>
+    <tableColumn id="25" name="5" dataDxfId="2"/>
+    <tableColumn id="26" name="6" dataDxfId="1"/>
+    <tableColumn id="13" name="Оценка" dataDxfId="0">
+      <calculatedColumnFormula>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1799,17 +1827,18 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="17" customWidth="1"/>
     <col min="4" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="12" width="16.88671875" customWidth="1"/>
     <col min="13" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="30.21875" customWidth="1"/>
     <col min="21" max="21" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1819,44 +1848,45 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -1865,7 +1895,7 @@
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1912,6 +1942,9 @@
       </c>
       <c r="R4" s="16" t="s">
         <v>31</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="U4" s="11"/>
     </row>
@@ -1922,7 +1955,7 @@
       <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <v>5</v>
       </c>
       <c r="D5" s="2">
@@ -1962,6 +1995,10 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
+      <c r="S5" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1970,7 +2007,7 @@
       <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
       <c r="D6" s="2">
@@ -2010,6 +2047,10 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
+      <c r="S6" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,7 +2060,7 @@
       <c r="B7" s="2">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -2056,6 +2097,10 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
+      <c r="S7" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -2064,7 +2109,7 @@
       <c r="B8" s="2">
         <v>14</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -2101,6 +2146,10 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
+      <c r="S8" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>5</v>
+      </c>
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2159,7 @@
       <c r="B9" s="2">
         <v>13</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -2147,6 +2196,10 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
+      <c r="S9" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -2155,8 +2208,8 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="26">
-        <v>3</v>
+      <c r="C10" s="19">
+        <v>4</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2171,7 +2224,7 @@
       </c>
       <c r="H10" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -2187,7 +2240,7 @@
       </c>
       <c r="L10" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2195,6 +2248,10 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
+      <c r="S10" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2204,11 +2261,15 @@
       <c r="B11" s="2">
         <v>14</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="19">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2216,11 +2277,11 @@
       </c>
       <c r="H11" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
@@ -2228,11 +2289,11 @@
       </c>
       <c r="K11" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2240,6 +2301,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
+      <c r="S11" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2248,7 +2313,7 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -2287,6 +2352,10 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
+      <c r="S12" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2365,7 @@
       <c r="B13" s="2">
         <v>15</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="2">
@@ -2336,6 +2405,10 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
+      <c r="S13" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2344,7 +2417,7 @@
       <c r="B14" s="2">
         <v>15</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="19">
         <v>4</v>
       </c>
       <c r="D14" s="2">
@@ -2384,6 +2457,10 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
+      <c r="S14" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,7 +2470,7 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="19">
         <v>3</v>
       </c>
       <c r="D15" s="2">
@@ -2433,6 +2510,10 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
+      <c r="S15" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -2441,7 +2522,7 @@
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -2478,6 +2559,10 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
+      <c r="S16" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
       <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2572,7 @@
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="19">
         <v>4</v>
       </c>
       <c r="D17" s="2">
@@ -2529,6 +2614,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
+      <c r="S17" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -2537,7 +2626,7 @@
       <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="19">
         <v>3</v>
       </c>
       <c r="D18" s="2">
@@ -2577,6 +2666,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
+      <c r="S18" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2586,7 +2679,7 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="2">
         <v>1</v>
       </c>
@@ -2623,6 +2716,10 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
+      <c r="S19" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -2631,7 +2728,7 @@
       <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2">
         <v>1</v>
       </c>
@@ -2668,6 +2765,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
+      <c r="S20" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>5</v>
+      </c>
       <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,7 +2778,7 @@
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="2">
         <v>1</v>
       </c>
@@ -2714,6 +2815,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
+      <c r="S21" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -2722,7 +2827,7 @@
       <c r="B22" s="2">
         <v>11</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2">
         <v>1</v>
       </c>
@@ -2759,6 +2864,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
+      <c r="S22" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>3</v>
+      </c>
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2768,7 +2877,7 @@
       <c r="B23" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="2">
         <v>1</v>
       </c>
@@ -2807,11 +2916,15 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
+      <c r="S23" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="26"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2832,21 +2945,21 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2"/>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
         <v>5</v>
       </c>
@@ -2859,18 +2972,18 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="K27" s="33" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="K27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2880,18 +2993,18 @@
       <c r="B28" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="K28" s="33" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="K28" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U28" s="11"/>
     </row>
@@ -2902,18 +3015,18 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="K29" s="33" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="K29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;60")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2923,12 +3036,12 @@
       <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="U30" s="11"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2938,12 +3051,12 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U32" s="11"/>
@@ -2954,52 +3067,52 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="21">
         <v>5</v>
       </c>
       <c r="U34" s="11"/>
     </row>
     <row r="35" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="23">
         <v>3</v>
       </c>
       <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="25">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="M3:S3"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -215,7 +215,8 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Оформление формул, отсутствие практической части</t>
+Оформление формул
+Добавлена практическая часть</t>
         </r>
       </text>
     </comment>
@@ -289,7 +290,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Оформление: ссылки на рисунки. Содержание: нет формул и описания алгоритмов. Отсутствие практической части</t>
+Оформление: ссылки на рисунки, оформление формул</t>
         </r>
       </text>
     </comment>
@@ -331,18 +332,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Иван Слеповичев:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Отсутствие практической части</t>
+          <t>Иван Слеповичев
+Добавлена практическая часть</t>
         </r>
       </text>
     </comment>
@@ -392,7 +383,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Оформление и ссылки на рисунки, оформление формул, отсутствие практической части</t>
+Оформление и ссылки на рисунки, оформление формул, добавлена практическая часть практической части</t>
         </r>
       </text>
     </comment>
@@ -1333,27 +1324,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,6 +1332,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1826,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,45 +1839,45 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -1943,7 +1934,7 @@
       <c r="R4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="28" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="11"/>
@@ -2165,7 +2156,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2184,11 +2175,11 @@
       </c>
       <c r="K9" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -2198,7 +2189,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="4">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2269,7 +2260,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2289,11 +2280,11 @@
       </c>
       <c r="K11" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2303,7 +2294,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="4">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2318,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2336,15 +2327,15 @@
       </c>
       <c r="J12" s="2">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2354,7 +2345,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="4">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12" s="11"/>
     </row>
@@ -2366,14 +2357,14 @@
         <v>15</v>
       </c>
       <c r="C13" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2381,7 +2372,7 @@
       </c>
       <c r="H13" s="2">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -2393,11 +2384,11 @@
       </c>
       <c r="K13" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2407,7 +2398,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="4">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2634,7 +2625,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2">
         <f>MIN(Таблица531[[#This Row],[Лекции]],12)</f>
@@ -2654,11 +2645,11 @@
       </c>
       <c r="K18" s="2">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2949,19 +2940,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="32"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="2"/>
       <c r="K26" s="26" t="s">
         <v>57</v>
       </c>
       <c r="L26" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U26" s="11"/>
     </row>
@@ -2972,18 +2963,18 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="K27" s="26" t="s">
         <v>58</v>
       </c>
       <c r="L27" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2993,18 +2984,18 @@
       <c r="B28" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="K28" s="26" t="s">
         <v>59</v>
       </c>
       <c r="L28" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U28" s="11"/>
     </row>
@@ -3015,12 +3006,12 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="K29" s="26" t="s">
         <v>60</v>
       </c>
@@ -3036,12 +3027,12 @@
       <c r="B30" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="U30" s="11"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3051,12 +3042,12 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U32" s="11"/>

--- a/БАРС/Баллы_НИ_531_22.xlsx
+++ b/БАРС/Баллы_НИ_531_22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496"/>
+    <workbookView xWindow="384" yWindow="180" windowWidth="19140" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="531" sheetId="1" r:id="rId1"/>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="C15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,12 +2233,24 @@
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>78</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
       <c r="S10" s="4">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
@@ -2975,6 +2987,10 @@
       <c r="L27" s="27">
         <f>COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
         <v>6</v>
+      </c>
+      <c r="N27">
+        <f>SUM(M10:R10)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
